--- a/Program/Other/LM045年度催收逾放總額明細表_內部控管.xlsx
+++ b/Program/Other/LM045年度催收逾放總額明細表_內部控管.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CDDB34-59A7-4E6D-A55F-CAAC7BE27F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91401FDF-B12D-4A60-B932-7B2F6AFF0162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4546D0CA-7AE3-43A6-AD9A-020327EF2E65}"/>
   </bookViews>
   <sheets>
     <sheet name="YYY年逾放總表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -177,18 +177,12 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -349,39 +343,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -413,6 +374,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -731,791 +725,717 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA60B6A-4B28-4196-BC90-03E74F3C5BDC}">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="15" width="10.77734375" customWidth="1"/>
-    <col min="16" max="16" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="10" customWidth="1"/>
+    <col min="3" max="15" width="10.77734375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="27.33203125" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
     </row>
     <row r="2" spans="1:23" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:23" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:23" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="13"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:23" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="13"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:23" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="17"/>
-    </row>
-    <row r="7" spans="1:23" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-    </row>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:23" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:23" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="22" t="s">
+      <c r="P8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="1:23" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="13"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:23" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="13"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:23" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="17"/>
-    </row>
-    <row r="12" spans="1:23" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-    </row>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:23" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:23" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="O13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="22" t="s">
+      <c r="P13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="1:23" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="13"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:23" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="13"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:23" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="17"/>
-    </row>
-    <row r="17" spans="1:17" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-    </row>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="1:17" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:17" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="O18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P18" s="22" t="s">
+      <c r="P18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q18" s="1"/>
+      <c r="Q18" s="15"/>
     </row>
     <row r="19" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="13"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="13"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="17"/>
-    </row>
-    <row r="22" spans="1:17" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-    </row>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:17" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:17" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N23" s="12" t="s">
+      <c r="N23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O23" s="12" t="s">
+      <c r="O23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P23" s="22" t="s">
+      <c r="P23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q23" s="1"/>
+      <c r="Q23" s="15"/>
     </row>
     <row r="24" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="13"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="13"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="17"/>
-    </row>
-    <row r="27" spans="1:17" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-    </row>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="1:17" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="1:17" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="L28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M28" s="12" t="s">
+      <c r="M28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N28" s="12" t="s">
+      <c r="N28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O28" s="12" t="s">
+      <c r="O28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P28" s="22" t="s">
+      <c r="P28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q28" s="1"/>
+      <c r="Q28" s="15"/>
     </row>
     <row r="29" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="13"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="2"/>
     </row>
     <row r="30" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="20"/>
+      <c r="B30" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="13"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="2"/>
     </row>
     <row r="31" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="10"/>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="17"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1529,5 +1449,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Program/Other/LM045年度催收逾放總額明細表_內部控管.xlsx
+++ b/Program/Other/LM045年度催收逾放總額明細表_內部控管.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.8\itxDoc\itxWrite\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91401FDF-B12D-4A60-B932-7B2F6AFF0162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938C42F4-0A9A-437E-BEFB-B13787C1C88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4546D0CA-7AE3-43A6-AD9A-020327EF2E65}"/>
   </bookViews>
@@ -170,7 +170,7 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="標楷體"/>
       <family val="4"/>
@@ -339,37 +339,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -395,6 +371,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -725,52 +728,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA60B6A-4B28-4196-BC90-03E74F3C5BDC}">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="10" customWidth="1"/>
-    <col min="3" max="15" width="10.77734375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="27.33203125" style="10" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="15.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="2" customWidth="1"/>
+    <col min="3" max="15" width="15.77734375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="27.33203125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
     </row>
     <row r="2" spans="1:23" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:23" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -812,77 +815,79 @@
       <c r="O3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="15"/>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:23" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="2"/>
+      <c r="C4" s="19">
+        <v>110096234586</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:23" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="2"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:23" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="6"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="15"/>
     </row>
     <row r="7" spans="1:23" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:23" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -924,77 +929,77 @@
       <c r="O8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="15"/>
+      <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:23" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="2"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:23" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="2"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:23" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="6"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="15"/>
     </row>
     <row r="12" spans="1:23" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:23" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1036,77 +1041,77 @@
       <c r="O13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="15"/>
+      <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="1:23" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="2"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:23" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="2"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:23" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="6"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="15"/>
     </row>
     <row r="17" spans="1:17" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:17" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1148,77 +1153,77 @@
       <c r="O18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q18" s="15"/>
+      <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
-      <c r="B19" s="16" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="2"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="20"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="2"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="21"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="6"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="15"/>
     </row>
     <row r="22" spans="1:17" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:17" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1260,77 +1265,77 @@
       <c r="O23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="P23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q23" s="15"/>
+      <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="19"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="2"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="11"/>
     </row>
     <row r="25" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="20"/>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="2"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="11"/>
     </row>
     <row r="26" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="21"/>
-      <c r="B26" s="18" t="s">
+      <c r="A26" s="22"/>
+      <c r="B26" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="6"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="15"/>
     </row>
     <row r="27" spans="1:17" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="1:17" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1372,70 +1377,70 @@
       <c r="O28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="P28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q28" s="15"/>
+      <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="19"/>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="2"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="11"/>
     </row>
     <row r="30" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="20"/>
-      <c r="B30" s="17" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="2"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="11"/>
     </row>
     <row r="31" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="21"/>
-      <c r="B31" s="18" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="6"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
